--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H2">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I2">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J2">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +558,22 @@
         <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q2">
-        <v>1587.162394933215</v>
+        <v>14.453765612872</v>
       </c>
       <c r="R2">
-        <v>14284.46155439893</v>
+        <v>130.083890515848</v>
       </c>
       <c r="S2">
-        <v>0.8985725480556852</v>
+        <v>0.241810252793392</v>
       </c>
       <c r="T2">
-        <v>0.8985725480556852</v>
+        <v>0.241810252793392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H3">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I3">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J3">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N3">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O3">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P3">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q3">
-        <v>131.064677404176</v>
+        <v>1.002574729344</v>
       </c>
       <c r="R3">
-        <v>1179.582096637584</v>
+        <v>9.023172564096001</v>
       </c>
       <c r="S3">
-        <v>0.07420231320445468</v>
+        <v>0.01677298880030525</v>
       </c>
       <c r="T3">
-        <v>0.07420231320445467</v>
+        <v>0.01677298880030525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>178.6795653333333</v>
+        <v>1.627176</v>
       </c>
       <c r="H4">
-        <v>536.038696</v>
+        <v>4.881528</v>
       </c>
       <c r="I4">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="J4">
-        <v>0.9735959054718317</v>
+        <v>0.2586999172896354</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P4">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q4">
-        <v>1.450222912100445</v>
+        <v>0.006974076336</v>
       </c>
       <c r="R4">
-        <v>13.052006208904</v>
+        <v>0.062766687024</v>
       </c>
       <c r="S4">
-        <v>0.0008210442116918137</v>
+        <v>0.0001166756959381383</v>
       </c>
       <c r="T4">
-        <v>0.0008210442116918135</v>
+        <v>0.0001166756959381383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H5">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I5">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J5">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,22 +744,22 @@
         <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q5">
-        <v>14.453765612872</v>
+        <v>4.677376350713223</v>
       </c>
       <c r="R5">
-        <v>130.083890515848</v>
+        <v>42.096387156419</v>
       </c>
       <c r="S5">
-        <v>0.008183004484745581</v>
+        <v>0.07825210315909209</v>
       </c>
       <c r="T5">
-        <v>0.008183004484745581</v>
+        <v>0.07825210315909208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H6">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I6">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J6">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N6">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O6">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P6">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q6">
-        <v>1.193562885168</v>
+        <v>0.3244427406986667</v>
       </c>
       <c r="R6">
-        <v>10.742065966512</v>
+        <v>2.919984666288</v>
       </c>
       <c r="S6">
-        <v>0.0006757360471832714</v>
+        <v>0.005427899085028582</v>
       </c>
       <c r="T6">
-        <v>0.0006757360471832713</v>
+        <v>0.005427899085028583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.627176</v>
+        <v>0.5265696666666667</v>
       </c>
       <c r="H7">
-        <v>4.881528</v>
+        <v>1.579709</v>
       </c>
       <c r="I7">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168156</v>
       </c>
       <c r="J7">
-        <v>0.00886621751136806</v>
+        <v>0.08371775961168154</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N7">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O7">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P7">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q7">
-        <v>0.013206702808</v>
+        <v>0.002256877591333333</v>
       </c>
       <c r="R7">
-        <v>0.118860325272</v>
+        <v>0.020311898322</v>
       </c>
       <c r="S7">
-        <v>7.476979439207344E-06</v>
+        <v>3.775736756088269E-05</v>
       </c>
       <c r="T7">
-        <v>7.476979439207343E-06</v>
+        <v>3.775736756088269E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H8">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I8">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J8">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +930,22 @@
         <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q8">
-        <v>5.609701804679666</v>
+        <v>36.73963590253155</v>
       </c>
       <c r="R8">
-        <v>50.487316242117</v>
+        <v>330.656723122784</v>
       </c>
       <c r="S8">
-        <v>0.003175934649507424</v>
+        <v>0.6146509417045305</v>
       </c>
       <c r="T8">
-        <v>0.003175934649507424</v>
+        <v>0.6146509417045305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +953,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H9">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I9">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J9">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N9">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O9">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P9">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q9">
-        <v>0.463237889022</v>
+        <v>2.548417589418667</v>
       </c>
       <c r="R9">
-        <v>4.169141001198</v>
+        <v>22.935758304768</v>
       </c>
       <c r="S9">
-        <v>0.0002622622937786719</v>
+        <v>0.04263480659819605</v>
       </c>
       <c r="T9">
-        <v>0.0002622622937786719</v>
+        <v>0.04263480659819607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,232 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.631529</v>
+        <v>4.136074666666667</v>
       </c>
       <c r="H10">
-        <v>1.894587</v>
+        <v>12.408224</v>
       </c>
       <c r="I10">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="J10">
-        <v>0.003441098860072149</v>
+        <v>0.6575823230986831</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N10">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O10">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P10">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q10">
-        <v>0.005125699873666668</v>
+        <v>0.01772721602133333</v>
       </c>
       <c r="R10">
-        <v>0.04613129886300001</v>
+        <v>0.159544944192</v>
       </c>
       <c r="S10">
-        <v>2.901916786053368E-06</v>
+        <v>0.0002965747959565755</v>
       </c>
       <c r="T10">
-        <v>2.901916786053368E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H11">
-        <v>7.76135</v>
-      </c>
-      <c r="I11">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J11">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.882730333333333</v>
-      </c>
-      <c r="N11">
-        <v>26.648191</v>
-      </c>
-      <c r="O11">
-        <v>0.9229419957556332</v>
-      </c>
-      <c r="P11">
-        <v>0.9229419957556332</v>
-      </c>
-      <c r="Q11">
-        <v>22.98065969087222</v>
-      </c>
-      <c r="R11">
-        <v>206.82593721785</v>
-      </c>
-      <c r="S11">
-        <v>0.01301050856569503</v>
-      </c>
-      <c r="T11">
-        <v>0.01301050856569503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H12">
-        <v>7.76135</v>
-      </c>
-      <c r="I12">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J12">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.733518</v>
-      </c>
-      <c r="N12">
-        <v>2.200554</v>
-      </c>
-      <c r="O12">
-        <v>0.07621469316727886</v>
-      </c>
-      <c r="P12">
-        <v>0.07621469316727884</v>
-      </c>
-      <c r="Q12">
-        <v>1.8976966431</v>
-      </c>
-      <c r="R12">
-        <v>17.0792697879</v>
-      </c>
-      <c r="S12">
-        <v>0.001074381621862229</v>
-      </c>
-      <c r="T12">
-        <v>0.001074381621862229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.587116666666667</v>
-      </c>
-      <c r="H13">
-        <v>7.76135</v>
-      </c>
-      <c r="I13">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="J13">
-        <v>0.01409677815672808</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.008116333333333335</v>
-      </c>
-      <c r="N13">
-        <v>0.024349</v>
-      </c>
-      <c r="O13">
-        <v>0.0008433110770878938</v>
-      </c>
-      <c r="P13">
-        <v>0.0008433110770878937</v>
-      </c>
-      <c r="Q13">
-        <v>0.02099790123888889</v>
-      </c>
-      <c r="R13">
-        <v>0.18898111115</v>
-      </c>
-      <c r="S13">
-        <v>1.188796917081945E-05</v>
-      </c>
-      <c r="T13">
-        <v>1.188796917081945E-05</v>
+        <v>0.0002965747959565756</v>
       </c>
     </row>
   </sheetData>
